--- a/PortfolioGeneration/Asset_Allocation.xlsx
+++ b/PortfolioGeneration/Asset_Allocation.xlsx
@@ -3,24 +3,30 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E712D3-3F19-4503-B2FA-EE106B323BF9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673DEC9D-FC34-4B5E-9D1C-BB322EECD1B2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="V1" sheetId="1" r:id="rId1"/>
+    <sheet name="V2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="61">
   <si>
     <t>Asset Class</t>
   </si>
@@ -40,9 +46,6 @@
     <t>Equities</t>
   </si>
   <si>
-    <t>%</t>
-  </si>
-  <si>
     <t>US</t>
   </si>
   <si>
@@ -197,13 +200,22 @@
   </si>
   <si>
     <t>SPDR Gold Shares ETF</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Number of Assets</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,6 +244,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -247,7 +266,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -476,13 +495,54 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -491,10 +551,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -514,18 +575,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -533,76 +582,96 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -880,10 +949,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -897,7 +966,7 @@
     <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -919,362 +988,882 @@
       <c r="G1" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="I1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="32">
+        <f>SUM(D2:D11)</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="30">
+        <f>SUM(G2:G6)</f>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="F2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="29">
+        <f>1/$K$1</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="18"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="29">
+        <f t="shared" ref="G3:G20" si="0">1/$K$1</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="18"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="29">
+        <f t="shared" si="0"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="18"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="29">
+        <f t="shared" si="0"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="18"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="29">
+        <f t="shared" si="0"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="18"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="30">
+        <f>SUM(G7:G9)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="29">
+        <f t="shared" si="0"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="18"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="29">
+        <f t="shared" si="0"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="18"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="29">
+        <f t="shared" si="0"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="18"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="31">
+        <f>SUM(G10)</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="29">
+        <f t="shared" si="0"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="19"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="31">
+        <f>SUM(G11)</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="29">
+        <f t="shared" si="0"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="32">
+        <f>SUM(D12:D15,D16)</f>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="33">
+        <f>SUM(G12)</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="29">
+        <f t="shared" si="0"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="18"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="33">
+        <f t="shared" ref="D13:D19" si="1">SUM(G13)</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="29">
+        <f t="shared" si="0"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="18"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="33">
+        <f t="shared" si="1"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="29">
+        <f t="shared" si="0"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="18"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="33">
+        <f t="shared" si="1"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="29">
+        <f t="shared" si="0"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="18"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="33">
+        <f t="shared" si="1"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="29">
+        <f t="shared" si="0"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="19"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="35">
+        <f>SUM(D18)</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="D18" s="33">
+        <f t="shared" si="1"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="29">
+        <f t="shared" si="0"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="35">
+        <f>SUM(D19)</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="33">
+        <f t="shared" si="1"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="29">
+        <f t="shared" si="0"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="36">
+        <f>SUM(D20)</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="34">
+        <f>SUM(G20)</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="29">
+        <f t="shared" si="0"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="37">
+        <f>SUM(B2:B20)</f>
+        <v>1</v>
+      </c>
+      <c r="C21" s="28"/>
+      <c r="D21" s="37">
+        <f>SUM(D16:D20,D2:D15)</f>
+        <v>1</v>
+      </c>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="38">
+        <f>SUM(G16:G20,G2:G15)</f>
+        <v>1.0000000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="C2:C6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A64DFB4F-65DD-4250-A5F1-55825437E6EE}">
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="32">
+        <f>SUM(D2:D11)</f>
+        <v>0.52</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="30">
+        <f>SUM(G2:G6)</f>
+        <v>0.2</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="29">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="18"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="F3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="29">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="18"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="29">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="18"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="29">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="18"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="29">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="18"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="30">
+        <f>SUM(G7:G9)</f>
+        <v>0.12</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="29">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="18"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="29">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="18"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="29">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="18"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="31">
+        <f>SUM(G10)</f>
+        <v>0.12</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="29">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="19"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="31">
+        <f>SUM(G11)</f>
+        <v>0.08</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="29">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="32">
+        <f>SUM(D12:D15,D16)</f>
+        <v>0.3</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="33">
+        <f>SUM(G12)</f>
+        <v>0.06</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="29">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="18"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="33">
+        <f t="shared" ref="D13:D19" si="0">SUM(G13)</f>
+        <v>0.06</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="29">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="18"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="33">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="29">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="18"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="33">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="29">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="18"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="33">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="29">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="19"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="35">
+        <f>SUM(D18)</f>
+        <v>0.06</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="22"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="27" t="s">
+      <c r="D18" s="33">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="11" t="s">
+      <c r="F18" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="G18" s="29">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="29" t="s">
+      <c r="B19" s="35">
+        <f>SUM(D19)</f>
+        <v>0.06</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="33">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="11" t="s">
+      <c r="F19" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="G19" s="29">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="31" t="s">
+      <c r="B20" s="36">
+        <f>SUM(D20)</f>
+        <v>0.06</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="34">
+        <f>SUM(G20)</f>
+        <v>0.06</v>
+      </c>
+      <c r="E20" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="33" t="s">
+      <c r="F20" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F20" s="35" t="s">
+      <c r="G20" s="29">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="G20" s="36" t="s">
-        <v>6</v>
+      <c r="B21" s="37">
+        <f>SUM(B2:B20)</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="C21" s="28"/>
+      <c r="D21" s="37">
+        <f>SUM(D16:D20,D2:D15)</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="39">
+        <f>SUM(G16:G20,G2:G15)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/PortfolioGeneration/Asset_Allocation.xlsx
+++ b/PortfolioGeneration/Asset_Allocation.xlsx
@@ -3,13 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673DEC9D-FC34-4B5E-9D1C-BB322EECD1B2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612AB3A2-FCD5-4A5B-9B20-5754A0127ADD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="V1" sheetId="1" r:id="rId1"/>
     <sheet name="V2" sheetId="2" r:id="rId2"/>
+    <sheet name="V3" sheetId="3" r:id="rId3"/>
+    <sheet name="V4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="61">
   <si>
     <t>Asset Class</t>
   </si>
@@ -555,7 +557,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -604,31 +606,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -641,31 +622,61 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -996,17 +1007,17 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="32">
+      <c r="B2" s="39">
         <f>SUM(D2:D11)</f>
         <v>0.55555555555555558</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="31">
         <f>SUM(G2:G6)</f>
         <v>0.27777777777777779</v>
       </c>
@@ -1016,82 +1027,82 @@
       <c r="F2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="29">
+      <c r="G2" s="22">
         <f>1/$K$1</f>
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="25"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="32"/>
       <c r="E3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="22">
         <f t="shared" ref="G3:G20" si="0">1/$K$1</f>
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="25"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="32"/>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="29">
+      <c r="G4" s="22">
         <f t="shared" si="0"/>
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="25"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="32"/>
       <c r="E5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="22">
         <f t="shared" si="0"/>
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="26"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="33"/>
       <c r="E6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="22">
         <f t="shared" si="0"/>
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="22" t="s">
+      <c r="A7" s="37"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="31">
         <f>SUM(G7:G9)</f>
         <v>0.16666666666666666</v>
       </c>
@@ -1101,50 +1112,50 @@
       <c r="F7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="22">
         <f t="shared" si="0"/>
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="25"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="32"/>
       <c r="E8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="29">
+      <c r="G8" s="22">
         <f t="shared" si="0"/>
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="26"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="33"/>
       <c r="E9" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="29">
+      <c r="G9" s="22">
         <f t="shared" si="0"/>
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
-      <c r="B10" s="20"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="23">
         <f>SUM(G10)</f>
         <v>5.5555555555555552E-2</v>
       </c>
@@ -1154,18 +1165,18 @@
       <c r="F10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="22">
         <f t="shared" si="0"/>
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
-      <c r="B11" s="21"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="23">
         <f>SUM(G11)</f>
         <v>5.5555555555555552E-2</v>
       </c>
@@ -1175,23 +1186,23 @@
       <c r="F11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="22">
         <f t="shared" si="0"/>
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="32">
+      <c r="B12" s="39">
         <f>SUM(D12:D15,D16)</f>
         <v>0.27777777777777779</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="33">
+      <c r="D12" s="24">
         <f>SUM(G12)</f>
         <v>5.5555555555555552E-2</v>
       </c>
@@ -1201,18 +1212,18 @@
       <c r="F12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="22">
         <f t="shared" si="0"/>
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
-      <c r="B13" s="20"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="33">
+      <c r="D13" s="24">
         <f t="shared" ref="D13:D19" si="1">SUM(G13)</f>
         <v>5.5555555555555552E-2</v>
       </c>
@@ -1222,18 +1233,18 @@
       <c r="F13" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G13" s="22">
         <f t="shared" si="0"/>
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="18"/>
-      <c r="B14" s="20"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="33">
+      <c r="D14" s="24">
         <f t="shared" si="1"/>
         <v>5.5555555555555552E-2</v>
       </c>
@@ -1243,18 +1254,18 @@
       <c r="F14" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="22">
         <f t="shared" si="0"/>
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="18"/>
-      <c r="B15" s="20"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="33">
+      <c r="D15" s="24">
         <f t="shared" si="1"/>
         <v>5.5555555555555552E-2</v>
       </c>
@@ -1264,18 +1275,18 @@
       <c r="F15" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="29">
+      <c r="G15" s="22">
         <f t="shared" si="0"/>
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
-      <c r="B16" s="20"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="33">
+      <c r="D16" s="24">
         <f t="shared" si="1"/>
         <v>5.5555555555555552E-2</v>
       </c>
@@ -1285,18 +1296,18 @@
       <c r="F16" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="29">
+      <c r="G16" s="22">
         <f t="shared" si="0"/>
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
-      <c r="B17" s="21"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="41"/>
       <c r="C17" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="24" t="s">
         <v>60</v>
       </c>
       <c r="E17" s="7" t="s">
@@ -1313,14 +1324,14 @@
       <c r="A18" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="35">
+      <c r="B18" s="26">
         <f>SUM(D18)</f>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="33">
+      <c r="D18" s="24">
         <f t="shared" si="1"/>
         <v>5.5555555555555552E-2</v>
       </c>
@@ -1330,7 +1341,7 @@
       <c r="F18" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="29">
+      <c r="G18" s="22">
         <f t="shared" si="0"/>
         <v>5.5555555555555552E-2</v>
       </c>
@@ -1339,14 +1350,14 @@
       <c r="A19" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="35">
+      <c r="B19" s="26">
         <f>SUM(D19)</f>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="33">
+      <c r="D19" s="24">
         <f t="shared" si="1"/>
         <v>5.5555555555555552E-2</v>
       </c>
@@ -1356,7 +1367,7 @@
       <c r="F19" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G19" s="29">
+      <c r="G19" s="22">
         <f t="shared" si="0"/>
         <v>5.5555555555555552E-2</v>
       </c>
@@ -1365,14 +1376,14 @@
       <c r="A20" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="36">
+      <c r="B20" s="27">
         <f>SUM(D20)</f>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="34">
+      <c r="D20" s="25">
         <f>SUM(G20)</f>
         <v>5.5555555555555552E-2</v>
       </c>
@@ -1382,27 +1393,27 @@
       <c r="F20" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="29">
+      <c r="G20" s="22">
         <f t="shared" si="0"/>
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="37">
+      <c r="B21" s="28">
         <f>SUM(B2:B20)</f>
         <v>1</v>
       </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="37">
+      <c r="C21" s="21"/>
+      <c r="D21" s="28">
         <f>SUM(D16:D20,D2:D15)</f>
         <v>1</v>
       </c>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="38">
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="29">
         <f>SUM(G16:G20,G2:G15)</f>
         <v>1.0000000000000002</v>
       </c>
@@ -1426,8 +1437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A64DFB4F-65DD-4250-A5F1-55825437E6EE}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1473,17 +1484,17 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="32">
+      <c r="B2" s="39">
         <f>SUM(D2:D11)</f>
         <v>0.52</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="31">
         <f>SUM(G2:G6)</f>
         <v>0.2</v>
       </c>
@@ -1493,77 +1504,77 @@
       <c r="F2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="29">
+      <c r="G2" s="22">
         <v>0.04</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="25"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="32"/>
       <c r="E3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="22">
         <v>0.04</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="25"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="32"/>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="29">
+      <c r="G4" s="22">
         <v>0.04</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="25"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="32"/>
       <c r="E5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="22">
         <v>0.04</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="26"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="33"/>
       <c r="E6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="22">
         <v>0.04</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="22" t="s">
+      <c r="A7" s="37"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="31">
         <f>SUM(G7:G9)</f>
         <v>0.12</v>
       </c>
@@ -1573,47 +1584,47 @@
       <c r="F7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="22">
         <v>0.04</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="25"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="32"/>
       <c r="E8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="29">
+      <c r="G8" s="22">
         <v>0.04</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="26"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="33"/>
       <c r="E9" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="29">
+      <c r="G9" s="22">
         <v>0.04</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
-      <c r="B10" s="20"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="23">
         <f>SUM(G10)</f>
         <v>0.12</v>
       </c>
@@ -1623,17 +1634,17 @@
       <c r="F10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="22">
         <v>0.12</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
-      <c r="B11" s="21"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="23">
         <f>SUM(G11)</f>
         <v>0.08</v>
       </c>
@@ -1643,22 +1654,22 @@
       <c r="F11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="22">
         <v>0.08</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="32">
+      <c r="B12" s="39">
         <f>SUM(D12:D15,D16)</f>
         <v>0.3</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="33">
+      <c r="D12" s="24">
         <f>SUM(G12)</f>
         <v>0.06</v>
       </c>
@@ -1668,17 +1679,17 @@
       <c r="F12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="22">
         <v>0.06</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
-      <c r="B13" s="20"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="33">
+      <c r="D13" s="24">
         <f t="shared" ref="D13:D19" si="0">SUM(G13)</f>
         <v>0.06</v>
       </c>
@@ -1688,17 +1699,17 @@
       <c r="F13" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G13" s="22">
         <v>0.06</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="18"/>
-      <c r="B14" s="20"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="33">
+      <c r="D14" s="24">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
@@ -1708,17 +1719,17 @@
       <c r="F14" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="22">
         <v>0.06</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="18"/>
-      <c r="B15" s="20"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="33">
+      <c r="D15" s="24">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
@@ -1728,17 +1739,17 @@
       <c r="F15" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="29">
+      <c r="G15" s="22">
         <v>0.06</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
-      <c r="B16" s="20"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="33">
+      <c r="D16" s="24">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
@@ -1748,17 +1759,17 @@
       <c r="F16" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="29">
+      <c r="G16" s="22">
         <v>0.06</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
-      <c r="B17" s="21"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="41"/>
       <c r="C17" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="24" t="s">
         <v>60</v>
       </c>
       <c r="E17" s="7" t="s">
@@ -1775,14 +1786,14 @@
       <c r="A18" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="35">
+      <c r="B18" s="26">
         <f>SUM(D18)</f>
         <v>0.06</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="33">
+      <c r="D18" s="24">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
@@ -1792,7 +1803,7 @@
       <c r="F18" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="29">
+      <c r="G18" s="22">
         <v>0.06</v>
       </c>
     </row>
@@ -1800,14 +1811,14 @@
       <c r="A19" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="35">
+      <c r="B19" s="26">
         <f>SUM(D19)</f>
         <v>0.06</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="33">
+      <c r="D19" s="24">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
@@ -1817,7 +1828,7 @@
       <c r="F19" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G19" s="29">
+      <c r="G19" s="22">
         <v>0.06</v>
       </c>
     </row>
@@ -1825,14 +1836,14 @@
       <c r="A20" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="36">
+      <c r="B20" s="27">
         <f>SUM(D20)</f>
         <v>0.06</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="34">
+      <c r="D20" s="25">
         <f>SUM(G20)</f>
         <v>0.06</v>
       </c>
@@ -1842,28 +1853,479 @@
       <c r="F20" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="29">
+      <c r="G20" s="22">
         <v>0.06</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="37">
+      <c r="B21" s="28">
         <f>SUM(B2:B20)</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="37">
+      <c r="C21" s="21"/>
+      <c r="D21" s="28">
         <f>SUM(D16:D20,D2:D15)</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="39">
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="30">
         <f>SUM(G16:G20,G2:G15)</f>
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="C2:C6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35DE9F43-3EAD-44CF-BA5A-F1AB117FBC86}">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="39">
+        <f>SUM(D2:D11)</f>
+        <v>0.61</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="31">
+        <f>SUM(G2:G6)</f>
+        <v>0.25</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="22">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="37"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="22">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="37"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="22">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="37"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="22">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="37"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="22">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="37"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="31">
+        <f>SUM(G7:G9)</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="22">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="37"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="22">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="37"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="22">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="37"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="23">
+        <f>SUM(G10)</f>
+        <v>0.12</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="22">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="38"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="23">
+        <f>SUM(G11)</f>
+        <v>0.09</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="22">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="39">
+        <f>SUM(D12:D15,D16)</f>
+        <v>0.15</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="24">
+        <f>SUM(G12)</f>
+        <v>0.03</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="22">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="37"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="24">
+        <f t="shared" ref="D13:D19" si="0">SUM(G13)</f>
+        <v>0.03</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="22">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="37"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="24">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="22">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="37"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="24">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="22">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="37"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="24">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="22">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="38"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="26">
+        <f>SUM(D18)</f>
+        <v>0.1</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="24">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="22">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="26">
+        <f>SUM(D19)</f>
+        <v>0.08</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="24">
+        <f t="shared" si="0"/>
+        <v>0.08</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="22">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="27">
+        <f>SUM(D20)</f>
+        <v>0.06</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="25">
+        <f>SUM(G20)</f>
+        <v>0.06</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="22">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="28">
+        <f>SUM(B2:B20)</f>
+        <v>1</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="28">
+        <f>SUM(D16:D20,D2:D15)</f>
+        <v>1</v>
+      </c>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="30">
+        <f>SUM(G16:G20,G2:G15)</f>
+        <v>1.0000000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -1879,4 +2341,16 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8974686-2DF5-4233-89AD-1865E371174C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PortfolioGeneration/Asset_Allocation.xlsx
+++ b/PortfolioGeneration/Asset_Allocation.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612AB3A2-FCD5-4A5B-9B20-5754A0127ADD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1332ACE-DF5E-4A4C-958A-04742962043E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="V1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="62">
   <si>
     <t>Asset Class</t>
   </si>
@@ -211,6 +212,9 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>All Weather</t>
   </si>
 </sst>
 </file>
@@ -1437,8 +1441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A64DFB4F-65DD-4250-A5F1-55825437E6EE}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1894,10 +1898,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35DE9F43-3EAD-44CF-BA5A-F1AB117FBC86}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1911,7 +1915,7 @@
     <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1934,7 +1938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
         <v>5</v>
       </c>
@@ -1958,8 +1962,11 @@
       <c r="G2" s="22">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="37"/>
       <c r="B3" s="40"/>
       <c r="C3" s="35"/>
@@ -1974,7 +1981,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="37"/>
       <c r="B4" s="40"/>
       <c r="C4" s="35"/>
@@ -1989,7 +1996,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="37"/>
       <c r="B5" s="40"/>
       <c r="C5" s="35"/>
@@ -2004,7 +2011,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="37"/>
       <c r="B6" s="40"/>
       <c r="C6" s="42"/>
@@ -2019,7 +2026,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="37"/>
       <c r="B7" s="40"/>
       <c r="C7" s="34" t="s">
@@ -2039,7 +2046,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="37"/>
       <c r="B8" s="40"/>
       <c r="C8" s="35"/>
@@ -2054,7 +2061,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="37"/>
       <c r="B9" s="40"/>
       <c r="C9" s="35"/>
@@ -2069,7 +2076,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="37"/>
       <c r="B10" s="40"/>
       <c r="C10" s="18" t="s">
@@ -2089,7 +2096,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="38"/>
       <c r="B11" s="41"/>
       <c r="C11" s="18" t="s">
@@ -2109,7 +2116,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="36" t="s">
         <v>30</v>
       </c>
@@ -2134,7 +2141,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="37"/>
       <c r="B13" s="40"/>
       <c r="C13" s="7" t="s">
@@ -2154,7 +2161,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="37"/>
       <c r="B14" s="40"/>
       <c r="C14" s="7" t="s">
@@ -2174,7 +2181,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="37"/>
       <c r="B15" s="40"/>
       <c r="C15" s="7" t="s">
@@ -2194,7 +2201,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="37"/>
       <c r="B16" s="40"/>
       <c r="C16" s="19" t="s">
@@ -2330,14 +2337,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
     <mergeCell ref="A12:A17"/>
     <mergeCell ref="B12:B17"/>
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="B2:B11"/>
     <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PortfolioGeneration/Asset_Allocation.xlsx
+++ b/PortfolioGeneration/Asset_Allocation.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1332ACE-DF5E-4A4C-958A-04742962043E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29250EAA-E053-498D-BD8B-FB4FB1D9F760}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/PortfolioGeneration/Asset_Allocation.xlsx
+++ b/PortfolioGeneration/Asset_Allocation.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29250EAA-E053-498D-BD8B-FB4FB1D9F760}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C23E639-D82A-4504-B689-C70F12E3BE77}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5370" windowHeight="8400" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="V1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="67">
   <si>
     <t>Asset Class</t>
   </si>
@@ -215,13 +215,28 @@
   </si>
   <si>
     <t>All Weather</t>
+  </si>
+  <si>
+    <t>Falling</t>
+  </si>
+  <si>
+    <t>Rising</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Inflation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rising </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,6 +272,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -272,7 +295,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -556,12 +579,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -645,6 +747,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -964,24 +1083,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:V38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K21"/>
+    <sheetView topLeftCell="G16" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5:V41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" customWidth="1"/>
+    <col min="19" max="19" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1010,18 +1131,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="52">
         <f>SUM(D2:D11)</f>
         <v>0.55555555555555558</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="31">
+      <c r="D2" s="44">
         <f>SUM(G2:G6)</f>
         <v>0.27777777777777779</v>
       </c>
@@ -1036,11 +1157,11 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="37"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="32"/>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="50"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="45"/>
       <c r="E3" s="7" t="s">
         <v>9</v>
       </c>
@@ -1052,11 +1173,11 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="37"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="32"/>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="50"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="45"/>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
@@ -1068,11 +1189,11 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="37"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="32"/>
+    <row r="5" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="50"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="45"/>
       <c r="E5" s="7" t="s">
         <v>13</v>
       </c>
@@ -1083,12 +1204,25 @@
         <f t="shared" si="0"/>
         <v>5.5555555555555552E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="37"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="33"/>
+      <c r="K5" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="N5" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="S5" s="43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="50"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="46"/>
       <c r="E6" s="7" t="s">
         <v>15</v>
       </c>
@@ -1099,14 +1233,49 @@
         <f t="shared" si="0"/>
         <v>5.5555555555555552E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="37"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="34" t="s">
+      <c r="J6" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6">
+        <f>VLOOKUP(K6,$E$2:$G$21,3,FALSE)</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O6">
+        <f>VLOOKUP(N6,$E$2:$G$21,3,FALSE)</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="Q6" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="R6" s="37">
+        <f>SUM(L16,L21,L22)</f>
+        <v>0.7777777777777779</v>
+      </c>
+      <c r="S6" s="38">
+        <f>SUM(O11)</f>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="U6" t="s">
+        <v>58</v>
+      </c>
+      <c r="V6" s="41">
+        <f>SUM(R6:S7)</f>
+        <v>1.9444444444444451</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="50"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="44">
         <f>SUM(G7:G9)</f>
         <v>0.16666666666666666</v>
       </c>
@@ -1120,12 +1289,37 @@
         <f t="shared" si="0"/>
         <v>5.5555555555555552E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="37"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="32"/>
+      <c r="K7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7">
+        <f>VLOOKUP(K7,$E$2:$G$21,3,FALSE)</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7">
+        <f>VLOOKUP(N7,$E$2:$G$21,3,FALSE)</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="Q7" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="R7" s="39">
+        <f>SUM(L29)</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="S7" s="40">
+        <f>SUM(O35,O37,O38)</f>
+        <v>0.66666666666666685</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="50"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="45"/>
       <c r="E8" s="7" t="s">
         <v>20</v>
       </c>
@@ -1136,12 +1330,26 @@
         <f t="shared" si="0"/>
         <v>5.5555555555555552E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="37"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="33"/>
+      <c r="K8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8">
+        <f t="shared" ref="L8:L15" si="1">VLOOKUP(K8,$E$2:$G$21,3,FALSE)</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>53</v>
+      </c>
+      <c r="O8">
+        <f>VLOOKUP(N8,$E$2:$G$21,3,FALSE)</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="50"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="46"/>
       <c r="E9" s="7" t="s">
         <v>22</v>
       </c>
@@ -1152,10 +1360,31 @@
         <f t="shared" si="0"/>
         <v>5.5555555555555552E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="37"/>
-      <c r="B10" s="40"/>
+      <c r="K9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>38</v>
+      </c>
+      <c r="O9">
+        <f>VLOOKUP(N9,$E$2:$G$21,3,FALSE)</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="S9" s="42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="50"/>
+      <c r="B10" s="53"/>
       <c r="C10" s="10" t="s">
         <v>24</v>
       </c>
@@ -1173,10 +1402,35 @@
         <f t="shared" si="0"/>
         <v>5.5555555555555552E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="38"/>
-      <c r="B11" s="41"/>
+      <c r="K10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O10">
+        <f>VLOOKUP(N10,$E$2:$G$21,3,FALSE)</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="Q10" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="R10" s="37">
+        <f>R6/$V$6</f>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="S10" s="38">
+        <f t="shared" ref="S10:S11" si="2">S6/$V$6</f>
+        <v>0.14285714285714282</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="51"/>
+      <c r="B11" s="54"/>
       <c r="C11" s="10" t="s">
         <v>27</v>
       </c>
@@ -1194,12 +1448,37 @@
         <f t="shared" si="0"/>
         <v>5.5555555555555552E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="36" t="s">
+      <c r="K11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11">
+        <f>VLOOKUP(K11,$E$2:$G$21,3,FALSE)</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="N11" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="O11" s="33">
+        <f>SUM(O6:O10)</f>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="Q11" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="R11" s="39">
+        <f t="shared" ref="R11" si="3">R7/$V$6</f>
+        <v>0.11428571428571424</v>
+      </c>
+      <c r="S11" s="40">
+        <f t="shared" si="2"/>
+        <v>0.34285714285714286</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="39">
+      <c r="B12" s="52">
         <f>SUM(D12:D15,D16)</f>
         <v>0.27777777777777779</v>
       </c>
@@ -1220,15 +1499,22 @@
         <f t="shared" si="0"/>
         <v>5.5555555555555552E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="37"/>
-      <c r="B13" s="40"/>
+      <c r="K12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="50"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="24">
-        <f t="shared" ref="D13:D19" si="1">SUM(G13)</f>
+        <f t="shared" ref="D13:D19" si="4">SUM(G13)</f>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="E13" s="7" t="s">
@@ -1241,15 +1527,22 @@
         <f t="shared" si="0"/>
         <v>5.5555555555555552E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="37"/>
-      <c r="B14" s="40"/>
+      <c r="K13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="50"/>
+      <c r="B14" s="53"/>
       <c r="C14" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="E14" s="7" t="s">
@@ -1262,15 +1555,22 @@
         <f t="shared" si="0"/>
         <v>5.5555555555555552E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="37"/>
-      <c r="B15" s="40"/>
+      <c r="K14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="50"/>
+      <c r="B15" s="53"/>
       <c r="C15" s="7" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="E15" s="7" t="s">
@@ -1283,15 +1583,22 @@
         <f t="shared" si="0"/>
         <v>5.5555555555555552E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="37"/>
-      <c r="B16" s="40"/>
+      <c r="K15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="50"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="11" t="s">
         <v>46</v>
       </c>
       <c r="D16" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="E16" s="11" t="s">
@@ -1304,10 +1611,17 @@
         <f t="shared" si="0"/>
         <v>5.5555555555555552E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="38"/>
-      <c r="B17" s="41"/>
+      <c r="K16" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="L16" s="33">
+        <f>SUM(L6:L15)</f>
+        <v>0.55555555555555569</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="51"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="7" t="s">
         <v>43</v>
       </c>
@@ -1324,7 +1638,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>49</v>
       </c>
@@ -1336,7 +1650,7 @@
         <v>6</v>
       </c>
       <c r="D18" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="E18" s="7" t="s">
@@ -1349,8 +1663,15 @@
         <f t="shared" si="0"/>
         <v>5.5555555555555552E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K18" t="s">
+        <v>53</v>
+      </c>
+      <c r="L18">
+        <f t="shared" ref="L18:L22" si="5">VLOOKUP(K18,$E$2:$G$21,3,FALSE)</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>52</v>
       </c>
@@ -1362,7 +1683,7 @@
         <v>52</v>
       </c>
       <c r="D19" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="E19" s="7" t="s">
@@ -1375,8 +1696,15 @@
         <f t="shared" si="0"/>
         <v>5.5555555555555552E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="5"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
         <v>55</v>
       </c>
@@ -1401,8 +1729,15 @@
         <f t="shared" si="0"/>
         <v>5.5555555555555552E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K20" t="s">
+        <v>47</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="5"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
         <v>58</v>
       </c>
@@ -1420,6 +1755,183 @@
       <c r="G21" s="29">
         <f>SUM(G16:G20,G2:G15)</f>
         <v>1.0000000000000002</v>
+      </c>
+      <c r="K21" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="L21" s="33">
+        <f>SUM(L18:L20)</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K22" t="s">
+        <v>50</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="5"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J25" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="K25" t="s">
+        <v>56</v>
+      </c>
+      <c r="L25">
+        <f>VLOOKUP(K25,$E$2:$G$21,3,FALSE)</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>7</v>
+      </c>
+      <c r="O25">
+        <f>VLOOKUP(N25,$E$2:$G$21,3,FALSE)</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K26" t="s">
+        <v>41</v>
+      </c>
+      <c r="L26">
+        <f>VLOOKUP(K26,$E$2:$G$21,3,FALSE)</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>9</v>
+      </c>
+      <c r="O26">
+        <f>VLOOKUP(N26,$E$2:$G$21,3,FALSE)</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K27" t="s">
+        <v>32</v>
+      </c>
+      <c r="L27">
+        <f>VLOOKUP(K27,$E$2:$G$21,3,FALSE)</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>11</v>
+      </c>
+      <c r="O27">
+        <f t="shared" ref="O27:O34" si="6">VLOOKUP(N27,$E$2:$G$21,3,FALSE)</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K28" t="s">
+        <v>35</v>
+      </c>
+      <c r="L28">
+        <f>VLOOKUP(K28,$E$2:$G$21,3,FALSE)</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>13</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="6"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K29" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="L29" s="33">
+        <f>SUM(L25:L28)</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="N29" t="s">
+        <v>15</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="6"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>66</v>
+      </c>
+      <c r="N30" t="s">
+        <v>18</v>
+      </c>
+      <c r="O30">
+        <f>VLOOKUP(N30,$E$2:$G$21,3,FALSE)</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>62</v>
+      </c>
+      <c r="N31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="6"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N32" t="s">
+        <v>22</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="6"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N33" t="s">
+        <v>25</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="6"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="14:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N34" t="s">
+        <v>28</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="6"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="14:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N35" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="O35" s="33">
+        <f>SUM(O25:O34)</f>
+        <v>0.55555555555555569</v>
+      </c>
+    </row>
+    <row r="37" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N37" t="s">
+        <v>32</v>
+      </c>
+      <c r="O37">
+        <f t="shared" ref="O37:O38" si="7">VLOOKUP(N37,$E$2:$G$21,3,FALSE)</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N38" t="s">
+        <v>35</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="7"/>
+        <v>5.5555555555555552E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1434,31 +1946,32 @@
     <mergeCell ref="C2:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A64DFB4F-65DD-4250-A5F1-55825437E6EE}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:V38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="AA8" sqref="AA8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1487,18 +2000,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="52">
         <f>SUM(D2:D11)</f>
         <v>0.52</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="31">
+      <c r="D2" s="44">
         <f>SUM(G2:G6)</f>
         <v>0.2</v>
       </c>
@@ -1512,11 +2025,11 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="37"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="32"/>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="50"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="45"/>
       <c r="E3" s="7" t="s">
         <v>9</v>
       </c>
@@ -1527,11 +2040,11 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="37"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="32"/>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="50"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="45"/>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
@@ -1542,11 +2055,11 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="37"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="32"/>
+    <row r="5" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="50"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="45"/>
       <c r="E5" s="7" t="s">
         <v>13</v>
       </c>
@@ -1556,12 +2069,25 @@
       <c r="G5" s="22">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="37"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="33"/>
+      <c r="K5" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="N5" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="S5" s="43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="50"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="46"/>
       <c r="E6" s="7" t="s">
         <v>15</v>
       </c>
@@ -1571,14 +2097,49 @@
       <c r="G6" s="22">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="37"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="34" t="s">
+      <c r="J6" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6">
+        <f>VLOOKUP(K6,$E$2:$G$21,3,FALSE)</f>
+        <v>0.04</v>
+      </c>
+      <c r="N6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O6">
+        <f>VLOOKUP(N6,$E$2:$G$21,3,FALSE)</f>
+        <v>0.06</v>
+      </c>
+      <c r="Q6" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="R6" s="37">
+        <f>SUM(L16,L21,L22)</f>
+        <v>0.76</v>
+      </c>
+      <c r="S6" s="38">
+        <f>SUM(O11)</f>
+        <v>0.3</v>
+      </c>
+      <c r="U6" t="s">
+        <v>58</v>
+      </c>
+      <c r="V6" s="41">
+        <f>SUM(R6:S7)</f>
+        <v>1.9400000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="50"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="44">
         <f>SUM(G7:G9)</f>
         <v>0.12</v>
       </c>
@@ -1591,12 +2152,37 @@
       <c r="G7" s="22">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="37"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="32"/>
+      <c r="K7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7">
+        <f>VLOOKUP(K7,$E$2:$G$21,3,FALSE)</f>
+        <v>0.04</v>
+      </c>
+      <c r="N7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7">
+        <f>VLOOKUP(N7,$E$2:$G$21,3,FALSE)</f>
+        <v>0.06</v>
+      </c>
+      <c r="Q7" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="R7" s="39">
+        <f>SUM(L29)</f>
+        <v>0.24</v>
+      </c>
+      <c r="S7" s="40">
+        <f>SUM(O35,O37,O38)</f>
+        <v>0.64000000000000012</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="50"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="45"/>
       <c r="E8" s="7" t="s">
         <v>20</v>
       </c>
@@ -1606,12 +2192,26 @@
       <c r="G8" s="22">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="37"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="33"/>
+      <c r="K8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8">
+        <f t="shared" ref="L8:L15" si="0">VLOOKUP(K8,$E$2:$G$21,3,FALSE)</f>
+        <v>0.04</v>
+      </c>
+      <c r="N8" t="s">
+        <v>53</v>
+      </c>
+      <c r="O8">
+        <f>VLOOKUP(N8,$E$2:$G$21,3,FALSE)</f>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="50"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="46"/>
       <c r="E9" s="7" t="s">
         <v>22</v>
       </c>
@@ -1621,10 +2221,31 @@
       <c r="G9" s="22">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="37"/>
-      <c r="B10" s="40"/>
+      <c r="K9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+      <c r="N9" t="s">
+        <v>38</v>
+      </c>
+      <c r="O9">
+        <f>VLOOKUP(N9,$E$2:$G$21,3,FALSE)</f>
+        <v>0.06</v>
+      </c>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="S9" s="42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="50"/>
+      <c r="B10" s="53"/>
       <c r="C10" s="10" t="s">
         <v>24</v>
       </c>
@@ -1641,10 +2262,35 @@
       <c r="G10" s="22">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="38"/>
-      <c r="B11" s="41"/>
+      <c r="K10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+      <c r="N10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O10">
+        <f>VLOOKUP(N10,$E$2:$G$21,3,FALSE)</f>
+        <v>0.06</v>
+      </c>
+      <c r="Q10" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="R10" s="37">
+        <f>R6/$V$6</f>
+        <v>0.39175257731958762</v>
+      </c>
+      <c r="S10" s="38">
+        <f t="shared" ref="S10:S11" si="1">S6/$V$6</f>
+        <v>0.15463917525773194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="51"/>
+      <c r="B11" s="54"/>
       <c r="C11" s="10" t="s">
         <v>27</v>
       </c>
@@ -1661,12 +2307,37 @@
       <c r="G11" s="22">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="36" t="s">
+      <c r="K11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11">
+        <f>VLOOKUP(K11,$E$2:$G$21,3,FALSE)</f>
+        <v>0.04</v>
+      </c>
+      <c r="N11" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="O11" s="33">
+        <f>SUM(O6:O10)</f>
+        <v>0.3</v>
+      </c>
+      <c r="Q11" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="R11" s="39">
+        <f t="shared" ref="R11" si="2">R7/$V$6</f>
+        <v>0.12371134020618556</v>
+      </c>
+      <c r="S11" s="40">
+        <f t="shared" si="1"/>
+        <v>0.32989690721649489</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="39">
+      <c r="B12" s="52">
         <f>SUM(D12:D15,D16)</f>
         <v>0.3</v>
       </c>
@@ -1686,15 +2357,22 @@
       <c r="G12" s="22">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="37"/>
-      <c r="B13" s="40"/>
+      <c r="K12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="50"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="24">
-        <f t="shared" ref="D13:D19" si="0">SUM(G13)</f>
+        <f t="shared" ref="D13:D19" si="3">SUM(G13)</f>
         <v>0.06</v>
       </c>
       <c r="E13" s="7" t="s">
@@ -1706,15 +2384,22 @@
       <c r="G13" s="22">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="37"/>
-      <c r="B14" s="40"/>
+      <c r="K13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="50"/>
+      <c r="B14" s="53"/>
       <c r="C14" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.06</v>
       </c>
       <c r="E14" s="7" t="s">
@@ -1726,15 +2411,22 @@
       <c r="G14" s="22">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="37"/>
-      <c r="B15" s="40"/>
+      <c r="K14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="50"/>
+      <c r="B15" s="53"/>
       <c r="C15" s="7" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.06</v>
       </c>
       <c r="E15" s="7" t="s">
@@ -1746,15 +2438,22 @@
       <c r="G15" s="22">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="37"/>
-      <c r="B16" s="40"/>
+      <c r="K15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="50"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="11" t="s">
         <v>46</v>
       </c>
       <c r="D16" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.06</v>
       </c>
       <c r="E16" s="11" t="s">
@@ -1766,10 +2465,17 @@
       <c r="G16" s="22">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="38"/>
-      <c r="B17" s="41"/>
+      <c r="K16" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="L16" s="33">
+        <f>SUM(L6:L15)</f>
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="51"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="7" t="s">
         <v>43</v>
       </c>
@@ -1786,7 +2492,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>49</v>
       </c>
@@ -1798,7 +2504,7 @@
         <v>6</v>
       </c>
       <c r="D18" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.06</v>
       </c>
       <c r="E18" s="7" t="s">
@@ -1810,8 +2516,15 @@
       <c r="G18" s="22">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K18" t="s">
+        <v>53</v>
+      </c>
+      <c r="L18">
+        <f t="shared" ref="L18:L22" si="4">VLOOKUP(K18,$E$2:$G$21,3,FALSE)</f>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>52</v>
       </c>
@@ -1823,7 +2536,7 @@
         <v>52</v>
       </c>
       <c r="D19" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.06</v>
       </c>
       <c r="E19" s="7" t="s">
@@ -1835,8 +2548,15 @@
       <c r="G19" s="22">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
         <v>55</v>
       </c>
@@ -1860,8 +2580,15 @@
       <c r="G20" s="22">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K20" t="s">
+        <v>47</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
         <v>58</v>
       </c>
@@ -1879,6 +2606,177 @@
       <c r="G21" s="30">
         <f>SUM(G16:G20,G2:G15)</f>
         <v>1</v>
+      </c>
+      <c r="K21" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="L21" s="33">
+        <f>SUM(L18:L20)</f>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K22" t="s">
+        <v>50</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J25" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="K25" t="s">
+        <v>56</v>
+      </c>
+      <c r="L25">
+        <f>VLOOKUP(K25,$E$2:$G$21,3,FALSE)</f>
+        <v>0.06</v>
+      </c>
+      <c r="N25" t="s">
+        <v>7</v>
+      </c>
+      <c r="O25">
+        <f>VLOOKUP(N25,$E$2:$G$21,3,FALSE)</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K26" t="s">
+        <v>41</v>
+      </c>
+      <c r="L26">
+        <f>VLOOKUP(K26,$E$2:$G$21,3,FALSE)</f>
+        <v>0.06</v>
+      </c>
+      <c r="N26" t="s">
+        <v>9</v>
+      </c>
+      <c r="O26">
+        <f>VLOOKUP(N26,$E$2:$G$21,3,FALSE)</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K27" t="s">
+        <v>32</v>
+      </c>
+      <c r="L27">
+        <f>VLOOKUP(K27,$E$2:$G$21,3,FALSE)</f>
+        <v>0.06</v>
+      </c>
+      <c r="N27" t="s">
+        <v>11</v>
+      </c>
+      <c r="O27">
+        <f t="shared" ref="O27:O34" si="5">VLOOKUP(N27,$E$2:$G$21,3,FALSE)</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K28" t="s">
+        <v>35</v>
+      </c>
+      <c r="L28">
+        <f>VLOOKUP(K28,$E$2:$G$21,3,FALSE)</f>
+        <v>0.06</v>
+      </c>
+      <c r="N28" t="s">
+        <v>13</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="5"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K29" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="L29" s="33">
+        <f>SUM(L25:L28)</f>
+        <v>0.24</v>
+      </c>
+      <c r="N29" t="s">
+        <v>15</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="5"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N30" t="s">
+        <v>18</v>
+      </c>
+      <c r="O30">
+        <f>VLOOKUP(N30,$E$2:$G$21,3,FALSE)</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="5"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N32" t="s">
+        <v>22</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="5"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="33" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N33" t="s">
+        <v>25</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="5"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="34" spans="14:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N34" t="s">
+        <v>28</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="5"/>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="35" spans="14:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N35" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="O35" s="33">
+        <f>SUM(O25:O34)</f>
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="37" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N37" t="s">
+        <v>32</v>
+      </c>
+      <c r="O37">
+        <f t="shared" ref="O37:O38" si="6">VLOOKUP(N37,$E$2:$G$21,3,FALSE)</f>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="38" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N38" t="s">
+        <v>35</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="6"/>
+        <v>0.06</v>
       </c>
     </row>
   </sheetData>
@@ -1898,24 +2796,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35DE9F43-3EAD-44CF-BA5A-F1AB117FBC86}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:V38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1938,20 +2836,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="52">
         <f>SUM(D2:D11)</f>
-        <v>0.61</v>
-      </c>
-      <c r="C2" s="34" t="s">
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="31">
+      <c r="D2" s="44">
         <f>SUM(G2:G6)</f>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>7</v>
@@ -1960,17 +2858,17 @@
         <v>8</v>
       </c>
       <c r="G2" s="22">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="J2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="37"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="32"/>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="50"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="45"/>
       <c r="E3" s="7" t="s">
         <v>9</v>
       </c>
@@ -1978,14 +2876,14 @@
         <v>10</v>
       </c>
       <c r="G3" s="22">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="37"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="32"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="50"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="45"/>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
@@ -1993,14 +2891,14 @@
         <v>12</v>
       </c>
       <c r="G4" s="22">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="37"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="32"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="50"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="45"/>
       <c r="E5" s="7" t="s">
         <v>13</v>
       </c>
@@ -2008,14 +2906,27 @@
         <v>14</v>
       </c>
       <c r="G5" s="22">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="37"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="33"/>
+        <v>0.04</v>
+      </c>
+      <c r="K5" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="N5" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="S5" s="43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="50"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="46"/>
       <c r="E6" s="7" t="s">
         <v>15</v>
       </c>
@@ -2023,18 +2934,53 @@
         <v>16</v>
       </c>
       <c r="G6" s="22">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="37"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="34" t="s">
+        <v>0.04</v>
+      </c>
+      <c r="J6" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6">
+        <f>VLOOKUP(K6,$E$2:$G$21,3,FALSE)</f>
+        <v>0.04</v>
+      </c>
+      <c r="N6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O6">
+        <f>VLOOKUP(N6,$E$2:$G$21,3,FALSE)</f>
+        <v>0.04</v>
+      </c>
+      <c r="Q6" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="R6" s="37">
+        <f>SUM(L16,L21,L22)</f>
+        <v>0.7599999999999999</v>
+      </c>
+      <c r="S6" s="38">
+        <f>SUM(O11)</f>
+        <v>0.31</v>
+      </c>
+      <c r="U6" t="s">
+        <v>58</v>
+      </c>
+      <c r="V6" s="41">
+        <f>SUM(R6:S7)</f>
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="50"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="44">
         <f>SUM(G7:G9)</f>
-        <v>0.15000000000000002</v>
+        <v>0.12</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>18</v>
@@ -2043,14 +2989,39 @@
         <v>19</v>
       </c>
       <c r="G7" s="22">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="37"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="32"/>
+        <v>0.04</v>
+      </c>
+      <c r="K7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7">
+        <f>VLOOKUP(K7,$E$2:$G$21,3,FALSE)</f>
+        <v>0.04</v>
+      </c>
+      <c r="N7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7">
+        <f>VLOOKUP(N7,$E$2:$G$21,3,FALSE)</f>
+        <v>0.06</v>
+      </c>
+      <c r="Q7" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="R7" s="39">
+        <f>SUM(L29)</f>
+        <v>0.24000000000000002</v>
+      </c>
+      <c r="S7" s="40">
+        <f>SUM(O35,O37,O38)</f>
+        <v>0.64000000000000012</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="50"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="45"/>
       <c r="E8" s="7" t="s">
         <v>20</v>
       </c>
@@ -2058,14 +3029,28 @@
         <v>21</v>
       </c>
       <c r="G8" s="22">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="37"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="33"/>
+        <v>0.04</v>
+      </c>
+      <c r="K8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8">
+        <f t="shared" ref="L8:L15" si="0">VLOOKUP(K8,$E$2:$G$21,3,FALSE)</f>
+        <v>0.04</v>
+      </c>
+      <c r="N8" t="s">
+        <v>53</v>
+      </c>
+      <c r="O8">
+        <f>VLOOKUP(N8,$E$2:$G$21,3,FALSE)</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="50"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="46"/>
       <c r="E9" s="7" t="s">
         <v>22</v>
       </c>
@@ -2073,18 +3058,39 @@
         <v>23</v>
       </c>
       <c r="G9" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="K9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+      <c r="N9" t="s">
+        <v>38</v>
+      </c>
+      <c r="O9">
+        <f>VLOOKUP(N9,$E$2:$G$21,3,FALSE)</f>
         <v>0.05</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="37"/>
-      <c r="B10" s="40"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="S9" s="42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="50"/>
+      <c r="B10" s="53"/>
       <c r="C10" s="18" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="23">
         <f>SUM(G10)</f>
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>25</v>
@@ -2093,18 +3099,43 @@
         <v>26</v>
       </c>
       <c r="G10" s="22">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="38"/>
-      <c r="B11" s="41"/>
+        <v>0.1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+      <c r="N10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O10">
+        <f>VLOOKUP(N10,$E$2:$G$21,3,FALSE)</f>
+        <v>0.08</v>
+      </c>
+      <c r="Q10" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="R10" s="37">
+        <f>R6/$V$6</f>
+        <v>0.38974358974358969</v>
+      </c>
+      <c r="S10" s="38">
+        <f t="shared" ref="S10:S11" si="1">S6/$V$6</f>
+        <v>0.15897435897435896</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="51"/>
+      <c r="B11" s="54"/>
       <c r="C11" s="18" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="23">
         <f>SUM(G11)</f>
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>28</v>
@@ -2113,23 +3144,48 @@
         <v>29</v>
       </c>
       <c r="G11" s="22">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="36" t="s">
+        <v>0.08</v>
+      </c>
+      <c r="K11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11">
+        <f>VLOOKUP(K11,$E$2:$G$21,3,FALSE)</f>
+        <v>0.04</v>
+      </c>
+      <c r="N11" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="O11" s="33">
+        <f>SUM(O6:O10)</f>
+        <v>0.31</v>
+      </c>
+      <c r="Q11" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="R11" s="39">
+        <f t="shared" ref="R11" si="2">R7/$V$6</f>
+        <v>0.12307692307692308</v>
+      </c>
+      <c r="S11" s="40">
+        <f t="shared" si="1"/>
+        <v>0.32820512820512826</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="39">
+      <c r="B12" s="52">
         <f>SUM(D12:D15,D16)</f>
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D12" s="24">
         <f>SUM(G12)</f>
-        <v>0.03</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>32</v>
@@ -2138,18 +3194,25 @@
         <v>33</v>
       </c>
       <c r="G12" s="22">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="37"/>
-      <c r="B13" s="40"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="50"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="24">
-        <f t="shared" ref="D13:D19" si="0">SUM(G13)</f>
-        <v>0.03</v>
+        <f t="shared" ref="D13:D19" si="3">SUM(G13)</f>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>35</v>
@@ -2158,18 +3221,25 @@
         <v>36</v>
       </c>
       <c r="G13" s="22">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="37"/>
-      <c r="B14" s="40"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="50"/>
+      <c r="B14" s="53"/>
       <c r="C14" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="24">
-        <f t="shared" si="0"/>
-        <v>0.03</v>
+        <f t="shared" si="3"/>
+        <v>0.05</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>38</v>
@@ -2178,18 +3248,25 @@
         <v>39</v>
       </c>
       <c r="G14" s="22">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="37"/>
-      <c r="B15" s="40"/>
+        <v>0.05</v>
+      </c>
+      <c r="K14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="50"/>
+      <c r="B15" s="53"/>
       <c r="C15" s="7" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="24">
-        <f t="shared" si="0"/>
-        <v>0.03</v>
+        <f t="shared" si="3"/>
+        <v>0.06</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>41</v>
@@ -2198,18 +3275,25 @@
         <v>42</v>
       </c>
       <c r="G15" s="22">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="37"/>
-      <c r="B16" s="40"/>
+        <v>0.06</v>
+      </c>
+      <c r="K15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="50"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="19" t="s">
         <v>46</v>
       </c>
       <c r="D16" s="24">
-        <f t="shared" si="0"/>
-        <v>0.03</v>
+        <f t="shared" si="3"/>
+        <v>0.05</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>47</v>
@@ -2218,12 +3302,19 @@
         <v>48</v>
       </c>
       <c r="G16" s="22">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="38"/>
-      <c r="B17" s="41"/>
+        <v>0.05</v>
+      </c>
+      <c r="K16" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="L16" s="33">
+        <f>SUM(L6:L15)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="51"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="7" t="s">
         <v>43</v>
       </c>
@@ -2240,20 +3331,20 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>49</v>
       </c>
       <c r="B18" s="26">
         <f>SUM(D18)</f>
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="24">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>0.08</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -2262,10 +3353,17 @@
         <v>51</v>
       </c>
       <c r="G18" s="22">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.08</v>
+      </c>
+      <c r="K18" t="s">
+        <v>53</v>
+      </c>
+      <c r="L18">
+        <f t="shared" ref="L18:L22" si="4">VLOOKUP(K18,$E$2:$G$21,3,FALSE)</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>52</v>
       </c>
@@ -2277,7 +3375,7 @@
         <v>52</v>
       </c>
       <c r="D19" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.08</v>
       </c>
       <c r="E19" s="7" t="s">
@@ -2289,21 +3387,28 @@
       <c r="G19" s="22">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
         <v>55</v>
       </c>
       <c r="B20" s="27">
         <f>SUM(D20)</f>
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>55</v>
       </c>
       <c r="D20" s="25">
         <f>SUM(G20)</f>
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>56</v>
@@ -2312,10 +3417,17 @@
         <v>57</v>
       </c>
       <c r="G20" s="22">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.04</v>
+      </c>
+      <c r="K20" t="s">
+        <v>47</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
         <v>58</v>
       </c>
@@ -2326,13 +3438,184 @@
       <c r="C21" s="21"/>
       <c r="D21" s="28">
         <f>SUM(D16:D20,D2:D15)</f>
-        <v>1</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
       <c r="G21" s="30">
         <f>SUM(G16:G20,G2:G15)</f>
-        <v>1.0000000000000002</v>
+        <v>1</v>
+      </c>
+      <c r="K21" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="L21" s="33">
+        <f>SUM(L18:L20)</f>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K22" t="s">
+        <v>50</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="4"/>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J25" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="K25" t="s">
+        <v>56</v>
+      </c>
+      <c r="L25">
+        <f>VLOOKUP(K25,$E$2:$G$21,3,FALSE)</f>
+        <v>0.04</v>
+      </c>
+      <c r="N25" t="s">
+        <v>7</v>
+      </c>
+      <c r="O25">
+        <f>VLOOKUP(N25,$E$2:$G$21,3,FALSE)</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K26" t="s">
+        <v>41</v>
+      </c>
+      <c r="L26">
+        <f>VLOOKUP(K26,$E$2:$G$21,3,FALSE)</f>
+        <v>0.06</v>
+      </c>
+      <c r="N26" t="s">
+        <v>9</v>
+      </c>
+      <c r="O26">
+        <f>VLOOKUP(N26,$E$2:$G$21,3,FALSE)</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K27" t="s">
+        <v>32</v>
+      </c>
+      <c r="L27">
+        <f>VLOOKUP(K27,$E$2:$G$21,3,FALSE)</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>11</v>
+      </c>
+      <c r="O27">
+        <f t="shared" ref="O27:O34" si="5">VLOOKUP(N27,$E$2:$G$21,3,FALSE)</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K28" t="s">
+        <v>35</v>
+      </c>
+      <c r="L28">
+        <f>VLOOKUP(K28,$E$2:$G$21,3,FALSE)</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>13</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="5"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K29" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="L29" s="33">
+        <f>SUM(L25:L28)</f>
+        <v>0.24000000000000002</v>
+      </c>
+      <c r="N29" t="s">
+        <v>15</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="5"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N30" t="s">
+        <v>18</v>
+      </c>
+      <c r="O30">
+        <f>VLOOKUP(N30,$E$2:$G$21,3,FALSE)</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="5"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N32" t="s">
+        <v>22</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="5"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="33" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N33" t="s">
+        <v>25</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="34" spans="14:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N34" t="s">
+        <v>28</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="5"/>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="35" spans="14:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N35" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="O35" s="33">
+        <f>SUM(O25:O34)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N37" t="s">
+        <v>32</v>
+      </c>
+      <c r="O37">
+        <f t="shared" ref="O37:O38" si="6">VLOOKUP(N37,$E$2:$G$21,3,FALSE)</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N38" t="s">
+        <v>35</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="6"/>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2356,7 +3639,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PortfolioGeneration/Asset_Allocation.xlsx
+++ b/PortfolioGeneration/Asset_Allocation.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C23E639-D82A-4504-B689-C70F12E3BE77}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECB19EC-F9E4-4761-923E-D53E8F28453A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5370" windowHeight="8400" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5376" windowHeight="8400" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="V1" sheetId="1" r:id="rId1"/>
     <sheet name="V2" sheetId="2" r:id="rId2"/>
     <sheet name="V3" sheetId="3" r:id="rId3"/>
     <sheet name="V4" sheetId="4" r:id="rId4"/>
+    <sheet name="Spread" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="73">
   <si>
     <t>Asset Class</t>
   </si>
@@ -230,12 +231,33 @@
   </si>
   <si>
     <t xml:space="preserve">Rising </t>
+  </si>
+  <si>
+    <t>https://screener.fidelity.com/ftgw/etf/goto/snapshot/snapshot.jhtml?symbols=GLD&amp;type=o-NavBar</t>
+  </si>
+  <si>
+    <t>ETF Ticker</t>
+  </si>
+  <si>
+    <t>ETF Name</t>
+  </si>
+  <si>
+    <t>Average Weight</t>
+  </si>
+  <si>
+    <t>Bid-Ask Spread (Bps)</t>
+  </si>
+  <si>
+    <t>Weighted Average Spread</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -295,7 +317,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -658,12 +680,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -766,6 +801,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -802,6 +840,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1089,20 +1145,20 @@
       <selection activeCell="J5" sqref="J5:V41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" customWidth="1"/>
-    <col min="19" max="19" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.44140625" customWidth="1"/>
+    <col min="19" max="19" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1131,18 +1187,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="52">
+      <c r="B2" s="53">
         <f>SUM(D2:D11)</f>
         <v>0.55555555555555558</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="44">
+      <c r="D2" s="45">
         <f>SUM(G2:G6)</f>
         <v>0.27777777777777779</v>
       </c>
@@ -1157,11 +1213,11 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="50"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="45"/>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="51"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="46"/>
       <c r="E3" s="7" t="s">
         <v>9</v>
       </c>
@@ -1173,11 +1229,11 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="45"/>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="51"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
@@ -1189,11 +1245,11 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="45"/>
+    <row r="5" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="51"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="7" t="s">
         <v>13</v>
       </c>
@@ -1218,11 +1274,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="46"/>
+    <row r="6" spans="1:22" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="51"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="47"/>
       <c r="E6" s="7" t="s">
         <v>15</v>
       </c>
@@ -1269,13 +1325,13 @@
         <v>1.9444444444444451</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="47" t="s">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" s="51"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="44">
+      <c r="D7" s="45">
         <f>SUM(G7:G9)</f>
         <v>0.16666666666666666</v>
       </c>
@@ -1315,11 +1371,11 @@
         <v>0.66666666666666685</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="45"/>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="51"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="46"/>
       <c r="E8" s="7" t="s">
         <v>20</v>
       </c>
@@ -1345,11 +1401,11 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="50"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="46"/>
+    <row r="9" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="51"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="47"/>
       <c r="E9" s="7" t="s">
         <v>22</v>
       </c>
@@ -1382,9 +1438,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="50"/>
-      <c r="B10" s="53"/>
+    <row r="10" spans="1:22" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="51"/>
+      <c r="B10" s="54"/>
       <c r="C10" s="10" t="s">
         <v>24</v>
       </c>
@@ -1428,9 +1484,9 @@
         <v>0.14285714285714282</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="51"/>
-      <c r="B11" s="54"/>
+    <row r="11" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="52"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="10" t="s">
         <v>27</v>
       </c>
@@ -1474,11 +1530,11 @@
         <v>0.34285714285714286</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="49" t="s">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="52">
+      <c r="B12" s="53">
         <f>SUM(D12:D15,D16)</f>
         <v>0.27777777777777779</v>
       </c>
@@ -1507,9 +1563,9 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
-      <c r="B13" s="53"/>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="51"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="7" t="s">
         <v>34</v>
       </c>
@@ -1535,9 +1591,9 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="50"/>
-      <c r="B14" s="53"/>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="51"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="7" t="s">
         <v>37</v>
       </c>
@@ -1563,9 +1619,9 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="50"/>
-      <c r="B15" s="53"/>
+    <row r="15" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="51"/>
+      <c r="B15" s="54"/>
       <c r="C15" s="7" t="s">
         <v>40</v>
       </c>
@@ -1591,9 +1647,9 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="50"/>
-      <c r="B16" s="53"/>
+    <row r="16" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="51"/>
+      <c r="B16" s="54"/>
       <c r="C16" s="11" t="s">
         <v>46</v>
       </c>
@@ -1619,9 +1675,9 @@
         <v>0.55555555555555569</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
-      <c r="B17" s="54"/>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="52"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="7" t="s">
         <v>43</v>
       </c>
@@ -1638,7 +1694,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>49</v>
       </c>
@@ -1671,7 +1727,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>52</v>
       </c>
@@ -1704,7 +1760,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="14" t="s">
         <v>55</v>
       </c>
@@ -1737,7 +1793,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="20" t="s">
         <v>58</v>
       </c>
@@ -1764,7 +1820,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K22" t="s">
         <v>50</v>
       </c>
@@ -1773,7 +1829,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J25" s="31" t="s">
         <v>62</v>
       </c>
@@ -1792,7 +1848,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K26" t="s">
         <v>41</v>
       </c>
@@ -1808,7 +1864,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K27" t="s">
         <v>32</v>
       </c>
@@ -1824,7 +1880,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K28" t="s">
         <v>35</v>
       </c>
@@ -1840,7 +1896,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K29" s="34" t="s">
         <v>58</v>
       </c>
@@ -1856,7 +1912,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F30" t="s">
         <v>66</v>
       </c>
@@ -1868,7 +1924,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F31" t="s">
         <v>62</v>
       </c>
@@ -1880,7 +1936,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="N32" t="s">
         <v>22</v>
       </c>
@@ -1889,7 +1945,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="33" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N33" t="s">
         <v>25</v>
       </c>
@@ -1898,7 +1954,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="34" spans="14:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="14:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N34" t="s">
         <v>28</v>
       </c>
@@ -1907,7 +1963,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="35" spans="14:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="14:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N35" s="32" t="s">
         <v>58</v>
       </c>
@@ -1916,7 +1972,7 @@
         <v>0.55555555555555569</v>
       </c>
     </row>
-    <row r="37" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N37" t="s">
         <v>32</v>
       </c>
@@ -1925,7 +1981,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="38" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N38" t="s">
         <v>35</v>
       </c>
@@ -1954,24 +2010,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A64DFB4F-65DD-4250-A5F1-55825437E6EE}">
   <dimension ref="A1:V38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="AA8" sqref="AA8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2000,18 +2056,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="52">
+      <c r="B2" s="53">
         <f>SUM(D2:D11)</f>
         <v>0.52</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="44">
+      <c r="D2" s="45">
         <f>SUM(G2:G6)</f>
         <v>0.2</v>
       </c>
@@ -2025,11 +2081,11 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="50"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="45"/>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="51"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="46"/>
       <c r="E3" s="7" t="s">
         <v>9</v>
       </c>
@@ -2040,11 +2096,11 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="45"/>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="51"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
@@ -2055,11 +2111,11 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="45"/>
+    <row r="5" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="51"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="7" t="s">
         <v>13</v>
       </c>
@@ -2083,11 +2139,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="46"/>
+    <row r="6" spans="1:22" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="51"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="47"/>
       <c r="E6" s="7" t="s">
         <v>15</v>
       </c>
@@ -2133,13 +2189,13 @@
         <v>1.9400000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="47" t="s">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" s="51"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="44">
+      <c r="D7" s="45">
         <f>SUM(G7:G9)</f>
         <v>0.12</v>
       </c>
@@ -2178,11 +2234,11 @@
         <v>0.64000000000000012</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="45"/>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="51"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="46"/>
       <c r="E8" s="7" t="s">
         <v>20</v>
       </c>
@@ -2207,11 +2263,11 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="50"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="46"/>
+    <row r="9" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="51"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="47"/>
       <c r="E9" s="7" t="s">
         <v>22</v>
       </c>
@@ -2243,9 +2299,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="50"/>
-      <c r="B10" s="53"/>
+    <row r="10" spans="1:22" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="51"/>
+      <c r="B10" s="54"/>
       <c r="C10" s="10" t="s">
         <v>24</v>
       </c>
@@ -2288,9 +2344,9 @@
         <v>0.15463917525773194</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="51"/>
-      <c r="B11" s="54"/>
+    <row r="11" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="52"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="10" t="s">
         <v>27</v>
       </c>
@@ -2333,11 +2389,11 @@
         <v>0.32989690721649489</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="49" t="s">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="52">
+      <c r="B12" s="53">
         <f>SUM(D12:D15,D16)</f>
         <v>0.3</v>
       </c>
@@ -2365,9 +2421,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
-      <c r="B13" s="53"/>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="51"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="7" t="s">
         <v>34</v>
       </c>
@@ -2392,9 +2448,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="50"/>
-      <c r="B14" s="53"/>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="51"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="7" t="s">
         <v>37</v>
       </c>
@@ -2419,9 +2475,9 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="50"/>
-      <c r="B15" s="53"/>
+    <row r="15" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="51"/>
+      <c r="B15" s="54"/>
       <c r="C15" s="7" t="s">
         <v>40</v>
       </c>
@@ -2446,9 +2502,9 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="50"/>
-      <c r="B16" s="53"/>
+    <row r="16" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="51"/>
+      <c r="B16" s="54"/>
       <c r="C16" s="11" t="s">
         <v>46</v>
       </c>
@@ -2473,9 +2529,9 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
-      <c r="B17" s="54"/>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="52"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="7" t="s">
         <v>43</v>
       </c>
@@ -2492,7 +2548,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>49</v>
       </c>
@@ -2524,7 +2580,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>52</v>
       </c>
@@ -2556,7 +2612,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="14" t="s">
         <v>55</v>
       </c>
@@ -2588,7 +2644,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="20" t="s">
         <v>58</v>
       </c>
@@ -2615,7 +2671,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K22" t="s">
         <v>50</v>
       </c>
@@ -2624,7 +2680,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J25" s="31" t="s">
         <v>62</v>
       </c>
@@ -2643,7 +2699,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K26" t="s">
         <v>41</v>
       </c>
@@ -2659,7 +2715,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K27" t="s">
         <v>32</v>
       </c>
@@ -2675,7 +2731,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K28" t="s">
         <v>35</v>
       </c>
@@ -2691,7 +2747,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K29" s="34" t="s">
         <v>58</v>
       </c>
@@ -2707,7 +2763,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="N30" t="s">
         <v>18</v>
       </c>
@@ -2716,7 +2772,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="N31" t="s">
         <v>20</v>
       </c>
@@ -2725,7 +2781,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="N32" t="s">
         <v>22</v>
       </c>
@@ -2734,7 +2790,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="33" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N33" t="s">
         <v>25</v>
       </c>
@@ -2743,7 +2799,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="34" spans="14:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="14:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N34" t="s">
         <v>28</v>
       </c>
@@ -2752,7 +2808,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="35" spans="14:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="14:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N35" s="32" t="s">
         <v>58</v>
       </c>
@@ -2761,7 +2817,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="37" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N37" t="s">
         <v>32</v>
       </c>
@@ -2770,7 +2826,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="38" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N38" t="s">
         <v>35</v>
       </c>
@@ -2799,21 +2855,21 @@
   <dimension ref="A1:V38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="E2" sqref="E2:F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2836,18 +2892,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="52">
+      <c r="B2" s="53">
         <f>SUM(D2:D11)</f>
         <v>0.5</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="44">
+      <c r="D2" s="45">
         <f>SUM(G2:G6)</f>
         <v>0.2</v>
       </c>
@@ -2864,11 +2920,11 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="50"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="45"/>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="51"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="46"/>
       <c r="E3" s="7" t="s">
         <v>9</v>
       </c>
@@ -2879,11 +2935,11 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="45"/>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="51"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
@@ -2894,11 +2950,11 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="45"/>
+    <row r="5" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="51"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="7" t="s">
         <v>13</v>
       </c>
@@ -2922,11 +2978,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="46"/>
+    <row r="6" spans="1:22" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="51"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="47"/>
       <c r="E6" s="7" t="s">
         <v>15</v>
       </c>
@@ -2972,13 +3028,13 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="47" t="s">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" s="51"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="44">
+      <c r="D7" s="45">
         <f>SUM(G7:G9)</f>
         <v>0.12</v>
       </c>
@@ -3017,11 +3073,11 @@
         <v>0.64000000000000012</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="45"/>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="51"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="46"/>
       <c r="E8" s="7" t="s">
         <v>20</v>
       </c>
@@ -3046,11 +3102,11 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="50"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="46"/>
+    <row r="9" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="51"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="47"/>
       <c r="E9" s="7" t="s">
         <v>22</v>
       </c>
@@ -3082,9 +3138,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="50"/>
-      <c r="B10" s="53"/>
+    <row r="10" spans="1:22" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="51"/>
+      <c r="B10" s="54"/>
       <c r="C10" s="18" t="s">
         <v>24</v>
       </c>
@@ -3127,9 +3183,9 @@
         <v>0.15897435897435896</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="51"/>
-      <c r="B11" s="54"/>
+    <row r="11" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="52"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="18" t="s">
         <v>27</v>
       </c>
@@ -3172,11 +3228,11 @@
         <v>0.32820512820512826</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="49" t="s">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="52">
+      <c r="B12" s="53">
         <f>SUM(D12:D15,D16)</f>
         <v>0.3</v>
       </c>
@@ -3204,9 +3260,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
-      <c r="B13" s="53"/>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="51"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="7" t="s">
         <v>34</v>
       </c>
@@ -3231,9 +3287,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="50"/>
-      <c r="B14" s="53"/>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="51"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="7" t="s">
         <v>37</v>
       </c>
@@ -3258,9 +3314,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="50"/>
-      <c r="B15" s="53"/>
+    <row r="15" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="51"/>
+      <c r="B15" s="54"/>
       <c r="C15" s="7" t="s">
         <v>40</v>
       </c>
@@ -3285,9 +3341,9 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="50"/>
-      <c r="B16" s="53"/>
+    <row r="16" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="51"/>
+      <c r="B16" s="54"/>
       <c r="C16" s="19" t="s">
         <v>46</v>
       </c>
@@ -3312,9 +3368,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
-      <c r="B17" s="54"/>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="52"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="7" t="s">
         <v>43</v>
       </c>
@@ -3331,7 +3387,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>49</v>
       </c>
@@ -3363,7 +3419,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>52</v>
       </c>
@@ -3395,7 +3451,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="14" t="s">
         <v>55</v>
       </c>
@@ -3427,7 +3483,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="20" t="s">
         <v>58</v>
       </c>
@@ -3454,7 +3510,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K22" t="s">
         <v>50</v>
       </c>
@@ -3463,7 +3519,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J25" s="31" t="s">
         <v>62</v>
       </c>
@@ -3482,7 +3538,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K26" t="s">
         <v>41</v>
       </c>
@@ -3498,7 +3554,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K27" t="s">
         <v>32</v>
       </c>
@@ -3514,7 +3570,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K28" t="s">
         <v>35</v>
       </c>
@@ -3530,7 +3586,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K29" s="34" t="s">
         <v>58</v>
       </c>
@@ -3546,7 +3602,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="N30" t="s">
         <v>18</v>
       </c>
@@ -3555,7 +3611,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="N31" t="s">
         <v>20</v>
       </c>
@@ -3564,7 +3620,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="N32" t="s">
         <v>22</v>
       </c>
@@ -3573,7 +3629,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="33" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N33" t="s">
         <v>25</v>
       </c>
@@ -3582,7 +3638,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="34" spans="14:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="14:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N34" t="s">
         <v>28</v>
       </c>
@@ -3591,7 +3647,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="35" spans="14:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="14:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N35" s="32" t="s">
         <v>58</v>
       </c>
@@ -3600,7 +3656,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N37" t="s">
         <v>32</v>
       </c>
@@ -3609,7 +3665,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="38" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N38" t="s">
         <v>35</v>
       </c>
@@ -3639,8 +3695,460 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4AA7AD5-B88E-4E16-A5C6-531860DCE1C2}">
+  <dimension ref="A1:S24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.21875" customWidth="1"/>
+    <col min="2" max="2" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="66" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="59">
+        <v>0.03</v>
+      </c>
+      <c r="D2" s="67">
+        <v>1.5774693214185381E-2</v>
+      </c>
+      <c r="E2" s="57">
+        <f>D2*C2</f>
+        <v>4.7324079642556139E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="59">
+        <v>0.03</v>
+      </c>
+      <c r="D3" s="67">
+        <v>1.6830258383560191E-2</v>
+      </c>
+      <c r="E3" s="57">
+        <f t="shared" ref="E3:E16" si="0">D3*C3</f>
+        <v>5.0490775150680576E-4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="59">
+        <v>0.03</v>
+      </c>
+      <c r="D4" s="67">
+        <v>1.8185186817719412E-2</v>
+      </c>
+      <c r="E4" s="57">
+        <f t="shared" si="0"/>
+        <v>5.4555560453158232E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="59">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D5" s="67">
+        <v>1.9582795625741046E-2</v>
+      </c>
+      <c r="E5" s="57">
+        <f t="shared" si="0"/>
+        <v>2.7415913876037467E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="59">
+        <v>0.02</v>
+      </c>
+      <c r="D6" s="67">
+        <v>2.1899001654141059E-2</v>
+      </c>
+      <c r="E6" s="57">
+        <f t="shared" si="0"/>
+        <v>4.3798003308282118E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="59">
+        <v>0.23</v>
+      </c>
+      <c r="D7" s="67">
+        <v>1.3525353120792265E-2</v>
+      </c>
+      <c r="E7" s="57">
+        <f t="shared" si="0"/>
+        <v>3.1108312177822212E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="59">
+        <v>0.37</v>
+      </c>
+      <c r="D8" s="67">
+        <v>1.351045430931907E-2</v>
+      </c>
+      <c r="E8" s="57">
+        <f t="shared" si="0"/>
+        <v>4.9988680944480562E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="59">
+        <v>0.27</v>
+      </c>
+      <c r="D9" s="67">
+        <v>1.4507858748789279E-2</v>
+      </c>
+      <c r="E9" s="57">
+        <f t="shared" si="0"/>
+        <v>3.9171218621731054E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="59">
+        <v>0.27</v>
+      </c>
+      <c r="D10" s="67">
+        <v>3.9436461751199317E-2</v>
+      </c>
+      <c r="E10" s="57">
+        <f t="shared" si="0"/>
+        <v>1.0647844672823816E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="59">
+        <v>0.09</v>
+      </c>
+      <c r="D11" s="67">
+        <v>4.1813874283463198E-2</v>
+      </c>
+      <c r="E11" s="57">
+        <f t="shared" si="0"/>
+        <v>3.7632486855116876E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="59">
+        <v>0.05</v>
+      </c>
+      <c r="D12" s="67">
+        <v>7.4404367061627563E-2</v>
+      </c>
+      <c r="E12" s="57">
+        <f t="shared" si="0"/>
+        <v>3.7202183530813783E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="59">
+        <v>0.01</v>
+      </c>
+      <c r="D13" s="67">
+        <v>0.1296256170155537</v>
+      </c>
+      <c r="E13" s="57">
+        <f t="shared" si="0"/>
+        <v>1.296256170155537E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="59">
+        <v>0.01</v>
+      </c>
+      <c r="D14" s="67">
+        <v>5.4975969214607373E-2</v>
+      </c>
+      <c r="E14" s="57">
+        <f t="shared" si="0"/>
+        <v>5.4975969214607378E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="59">
+        <v>0.01</v>
+      </c>
+      <c r="D15" s="67">
+        <v>0.12042694635646803</v>
+      </c>
+      <c r="E15" s="57">
+        <f t="shared" si="0"/>
+        <v>1.2042694635646803E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="59">
+        <v>0.01</v>
+      </c>
+      <c r="D16" s="67">
+        <v>7.5769665259871027E-2</v>
+      </c>
+      <c r="E16" s="57">
+        <f t="shared" si="0"/>
+        <v>7.5769665259871029E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="59">
+        <v>0.01</v>
+      </c>
+      <c r="D17" s="67">
+        <v>0.240898295855558</v>
+      </c>
+      <c r="E17" s="57">
+        <f>D17*C17</f>
+        <v>2.40898295855558E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="59">
+        <v>0.03</v>
+      </c>
+      <c r="D18" s="67">
+        <v>2.4847318153134797E-2</v>
+      </c>
+      <c r="E18" s="57">
+        <f t="shared" ref="E18:E20" si="1">D18*C18</f>
+        <v>7.4541954459404389E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="59">
+        <v>0.06</v>
+      </c>
+      <c r="D19" s="67">
+        <v>2.9665128081847777E-2</v>
+      </c>
+      <c r="E19" s="57">
+        <f t="shared" si="1"/>
+        <v>1.7799076849108666E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="58">
+        <v>0.01</v>
+      </c>
+      <c r="D20" s="68">
+        <v>3.4320755092419164E-2</v>
+      </c>
+      <c r="E20" s="57">
+        <f t="shared" si="1"/>
+        <v>3.4320755092419162E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="34"/>
+      <c r="B21" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="62">
+        <f>SUM(E2:E20)</f>
+        <v>4.3946908176420468E-2</v>
+      </c>
+      <c r="D21" s="63"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1.5774693214185381E-2</v>
+      </c>
+      <c r="B24">
+        <v>1.6830258383560191E-2</v>
+      </c>
+      <c r="C24">
+        <v>1.8185186817719412E-2</v>
+      </c>
+      <c r="D24">
+        <v>1.9582795625741046E-2</v>
+      </c>
+      <c r="E24">
+        <v>2.1899001654141059E-2</v>
+      </c>
+      <c r="F24">
+        <v>1.3525353120792265E-2</v>
+      </c>
+      <c r="G24">
+        <v>1.351045430931907E-2</v>
+      </c>
+      <c r="H24">
+        <v>1.4507858748789279E-2</v>
+      </c>
+      <c r="I24">
+        <v>3.9436461751199317E-2</v>
+      </c>
+      <c r="J24">
+        <v>4.1813874283463198E-2</v>
+      </c>
+      <c r="K24">
+        <v>7.4404367061627563E-2</v>
+      </c>
+      <c r="L24">
+        <v>0.1296256170155537</v>
+      </c>
+      <c r="M24">
+        <v>5.4975969214607373E-2</v>
+      </c>
+      <c r="N24">
+        <v>0.12042694635646803</v>
+      </c>
+      <c r="O24">
+        <v>7.5769665259871027E-2</v>
+      </c>
+      <c r="P24">
+        <v>2.4847318153134797E-2</v>
+      </c>
+      <c r="Q24">
+        <v>2.9665128081847777E-2</v>
+      </c>
+      <c r="R24">
+        <v>3.4320755092419164E-2</v>
+      </c>
+      <c r="S24">
+        <v>0.24089829585555816</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>